--- a/additional_data/raw/extreme_weather.xlsx
+++ b/additional_data/raw/extreme_weather.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhvo/Downloads/asa_datafest_2025/additional_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4120B7C-4372-1641-A300-AACBEE3FFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="18">
   <si>
     <t>City</t>
   </si>
@@ -61,6 +55,9 @@
     <t>San Francisco</t>
   </si>
   <si>
+    <t>South BaySan Jose</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -72,15 +69,12 @@
   <si>
     <t>Q4</t>
   </si>
-  <si>
-    <t>South Bay/San Jose</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,21 +137,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,19 +424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,12 +445,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -480,12 +459,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -494,12 +473,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -508,12 +487,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -522,12 +501,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -536,12 +515,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -550,12 +529,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -564,12 +543,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -578,12 +557,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -592,12 +571,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -606,12 +585,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -620,12 +599,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -634,12 +613,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -648,12 +627,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -662,12 +641,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -676,12 +655,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -690,12 +669,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>2024</v>
@@ -704,12 +683,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>2024</v>
@@ -718,12 +697,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>2024</v>
@@ -732,12 +711,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>2024</v>
@@ -746,12 +725,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -760,12 +739,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -774,12 +753,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>2020</v>
@@ -788,12 +767,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>2020</v>
@@ -802,12 +781,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -816,12 +795,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -830,12 +809,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -844,12 +823,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -858,12 +837,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -872,12 +851,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -886,12 +865,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -900,12 +879,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -914,2243 +893,2355 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>2023</v>
+      </c>
+      <c r="D55">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55">
-        <v>2020</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>2023</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>2024</v>
+      </c>
+      <c r="D58">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57">
-        <v>2020</v>
-      </c>
-      <c r="D57">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>2024</v>
+      </c>
+      <c r="D59">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58">
-        <v>2021</v>
-      </c>
-      <c r="D58">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59">
-        <v>2021</v>
-      </c>
-      <c r="D59">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D71">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D75">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>2023</v>
+      </c>
+      <c r="D77">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77">
-        <v>2020</v>
-      </c>
-      <c r="D77">
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>2024</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>2024</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>2024</v>
+      </c>
+      <c r="D80">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78">
-        <v>2021</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79">
-        <v>2021</v>
-      </c>
-      <c r="D79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80">
-        <v>2021</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D87">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D88">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C91">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C92">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>2023</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95">
+        <v>2023</v>
+      </c>
+      <c r="D95">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>2023</v>
+      </c>
+      <c r="D96">
         <v>13</v>
       </c>
-      <c r="C94">
-        <v>2020</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95">
-        <v>2020</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96">
-        <v>2020</v>
-      </c>
-      <c r="D96">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>9</v>
-      </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D99">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C100">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D100">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C101">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D102">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D107">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C108">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C109">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C110">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D110">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C111">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D112">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C113">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>2023</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>2023</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>2023</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>2023</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>2024</v>
+      </c>
+      <c r="D118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <v>2024</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <v>2024</v>
+      </c>
+      <c r="D120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>2024</v>
+      </c>
+      <c r="D121">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114">
-        <v>2020</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115">
-        <v>2020</v>
-      </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116">
-        <v>2020</v>
-      </c>
-      <c r="D116">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117">
-        <v>2020</v>
-      </c>
-      <c r="D117">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118">
-        <v>2021</v>
-      </c>
-      <c r="D118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119">
-        <v>2021</v>
-      </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120">
-        <v>2021</v>
-      </c>
-      <c r="D120">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121">
-        <v>2021</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C122">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C123">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D123">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C124">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D124">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C125">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C130">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D130">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C131">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C132">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D132">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C133">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C134">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C135">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C136">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D136">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C137">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C138">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>11</v>
-      </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C139">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C140">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141">
+        <v>2024</v>
+      </c>
+      <c r="D141">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" t="s">
-        <v>16</v>
-      </c>
-      <c r="C141">
-        <v>2021</v>
-      </c>
-      <c r="D141">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D145">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C146">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D146">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C147">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C148">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C149">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D149">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D150">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D151">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C154">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C155">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D155">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C156">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>12</v>
-      </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D157">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D158">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C159">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D159">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C160">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C161">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C162">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C163">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C164">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D164">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C165">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D165">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D166">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C170">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D170">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C171">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C172">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C173">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174">
+        <v>2023</v>
+      </c>
+      <c r="D174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175">
+        <v>2023</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176">
+        <v>2023</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177">
+        <v>2023</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178">
+        <v>2024</v>
+      </c>
+      <c r="D178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179">
+        <v>2024</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180">
+        <v>2024</v>
+      </c>
+      <c r="D180">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181">
+        <v>2024</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
         <v>13</v>
       </c>
-      <c r="C174">
-        <v>2020</v>
-      </c>
-      <c r="D174">
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182">
+        <v>2020</v>
+      </c>
+      <c r="D182">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175">
-        <v>2020</v>
-      </c>
-      <c r="D175">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>17</v>
-      </c>
-      <c r="B176" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176">
-        <v>2020</v>
-      </c>
-      <c r="D176">
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183">
+        <v>2020</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184">
+        <v>2020</v>
+      </c>
+      <c r="D184">
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>17</v>
-      </c>
-      <c r="B177" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177">
-        <v>2020</v>
-      </c>
-      <c r="D177">
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185">
+        <v>2020</v>
+      </c>
+      <c r="D185">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>17</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
         <v>13</v>
       </c>
-      <c r="C178">
-        <v>2021</v>
-      </c>
-      <c r="D178">
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186">
+        <v>2021</v>
+      </c>
+      <c r="D186">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>17</v>
-      </c>
-      <c r="B179" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179">
-        <v>2021</v>
-      </c>
-      <c r="D179">
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187">
+        <v>2021</v>
+      </c>
+      <c r="D187">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>17</v>
-      </c>
-      <c r="B180" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180">
-        <v>2021</v>
-      </c>
-      <c r="D180">
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188">
+        <v>2021</v>
+      </c>
+      <c r="D188">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>17</v>
-      </c>
-      <c r="B181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181">
-        <v>2021</v>
-      </c>
-      <c r="D181">
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189">
+        <v>2021</v>
+      </c>
+      <c r="D189">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>17</v>
-      </c>
-      <c r="B182" t="s">
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
         <v>13</v>
       </c>
-      <c r="C182">
-        <v>2022</v>
-      </c>
-      <c r="D182">
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190">
+        <v>2022</v>
+      </c>
+      <c r="D190">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>17</v>
-      </c>
-      <c r="B183" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183">
-        <v>2022</v>
-      </c>
-      <c r="D183">
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191">
+        <v>2022</v>
+      </c>
+      <c r="D191">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>17</v>
-      </c>
-      <c r="B184" t="s">
-        <v>15</v>
-      </c>
-      <c r="C184">
-        <v>2022</v>
-      </c>
-      <c r="D184">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>17</v>
-      </c>
-      <c r="B185" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185">
-        <v>2022</v>
-      </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>17</v>
-      </c>
-      <c r="B186" t="s">
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
         <v>13</v>
       </c>
-      <c r="C186">
-        <v>2023</v>
-      </c>
-      <c r="D186">
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192">
+        <v>2022</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193">
+        <v>2022</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194">
+        <v>2023</v>
+      </c>
+      <c r="D194">
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>17</v>
-      </c>
-      <c r="B187" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187">
-        <v>2023</v>
-      </c>
-      <c r="D187">
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195">
+        <v>2023</v>
+      </c>
+      <c r="D195">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>17</v>
-      </c>
-      <c r="B188" t="s">
-        <v>15</v>
-      </c>
-      <c r="C188">
-        <v>2023</v>
-      </c>
-      <c r="D188">
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196">
+        <v>2023</v>
+      </c>
+      <c r="D196">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>17</v>
-      </c>
-      <c r="B189" t="s">
-        <v>16</v>
-      </c>
-      <c r="C189">
-        <v>2023</v>
-      </c>
-      <c r="D189">
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197">
+        <v>2023</v>
+      </c>
+      <c r="D197">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>17</v>
-      </c>
-      <c r="B190" t="s">
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>2024</v>
-      </c>
-      <c r="D190">
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198">
+        <v>2024</v>
+      </c>
+      <c r="D198">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>17</v>
-      </c>
-      <c r="B191" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191">
-        <v>2024</v>
-      </c>
-      <c r="D191">
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199">
+        <v>2024</v>
+      </c>
+      <c r="D199">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>17</v>
-      </c>
-      <c r="B192" t="s">
-        <v>15</v>
-      </c>
-      <c r="C192">
-        <v>2024</v>
-      </c>
-      <c r="D192">
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200">
+        <v>2024</v>
+      </c>
+      <c r="D200">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>17</v>
-      </c>
-      <c r="B193" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193">
-        <v>2024</v>
-      </c>
-      <c r="D193">
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201">
+        <v>2024</v>
+      </c>
+      <c r="D201">
         <v>2</v>
       </c>
     </row>
